--- a/output2.xlsx
+++ b/output2.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -414,28 +414,28 @@
         <v>14-6-2021</v>
       </c>
       <c r="B2" t="str">
-        <v>2:00pm-5:00pm</v>
+        <v>2-5</v>
       </c>
       <c r="C2" t="str">
-        <v>BIOF215</v>
+        <v>MATH F432</v>
       </c>
       <c r="D2" t="str">
-        <v>BIOPHYSICS</v>
+        <v>APPLIED STATISTICAL METHODS</v>
       </c>
       <c r="E2" t="str">
-        <v>BIO</v>
+        <v>MATH</v>
       </c>
       <c r="F2" t="str">
-        <v>Sumit Biswas</v>
+        <v>Chandradew Sharma</v>
       </c>
       <c r="G2" t="str">
-        <v>sumit@goa.bits-pilani.ac.in</v>
+        <v>csharma@goa.bits-pilani.ac.in</v>
       </c>
       <c r="H2" t="str">
-        <v>G0412</v>
+        <v>G0362</v>
       </c>
       <c r="I2" t="str">
-        <v>Sumit Biswas</v>
+        <v>Chandradew Sharma</v>
       </c>
     </row>
     <row r="3">
@@ -443,33 +443,381 @@
         <v>14-6-2021</v>
       </c>
       <c r="B3" t="str">
-        <v>2:00pm-5:00pm</v>
+        <v>2-5</v>
       </c>
       <c r="C3" t="str">
-        <v>BIOF215</v>
+        <v>ECE EEE INSTR F341</v>
       </c>
       <c r="D3" t="str">
-        <v>BIOPHYSICS</v>
+        <v>ANALOG ELECTRONICS</v>
       </c>
       <c r="E3" t="str">
-        <v>BIO</v>
+        <v xml:space="preserve">ECE EEE INSTR </v>
       </c>
       <c r="F3" t="str">
-        <v>RAVIPRASAD ADURI .</v>
+        <v>Ramesha C K</v>
       </c>
       <c r="G3" t="str">
-        <v>aduri@goa.bits-pilani.ac.in</v>
+        <v>rameshack@goa.bits-pilani.ac.in</v>
       </c>
       <c r="H3" t="str">
-        <v>G0565</v>
+        <v>G0333</v>
       </c>
       <c r="I3" t="str">
-        <v>Sumit Biswas</v>
+        <v>Ramesha C K</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>14-6-2021</v>
+      </c>
+      <c r="B4" t="str">
+        <v>2-5</v>
+      </c>
+      <c r="C4" t="str">
+        <v>ECE EEE INSTR F341</v>
+      </c>
+      <c r="D4" t="str">
+        <v>ANALOG ELECTRONICS</v>
+      </c>
+      <c r="E4" t="str">
+        <v xml:space="preserve">ECE EEE INSTR </v>
+      </c>
+      <c r="F4" t="str">
+        <v>PRAMILA .</v>
+      </c>
+      <c r="G4" t="str">
+        <v>pramila@goa.bits-pilani.ac.in</v>
+      </c>
+      <c r="H4" t="str">
+        <v>G0789</v>
+      </c>
+      <c r="I4" t="str">
+        <v>Ramesha C K</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>14-6-2021</v>
+      </c>
+      <c r="B5" t="str">
+        <v>2-5</v>
+      </c>
+      <c r="C5" t="str">
+        <v>ECE EEE INSTR F341</v>
+      </c>
+      <c r="D5" t="str">
+        <v>ANALOG ELECTRONICS</v>
+      </c>
+      <c r="E5" t="str">
+        <v xml:space="preserve">ECE EEE INSTR </v>
+      </c>
+      <c r="F5" t="str">
+        <v>AFROZ FATIMA .</v>
+      </c>
+      <c r="G5" t="str">
+        <v>p20180404@goa.bits-pilani.ac.in</v>
+      </c>
+      <c r="H5" t="str">
+        <v>31320180404</v>
+      </c>
+      <c r="I5" t="str">
+        <v>Ramesha C K</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>14-6-2021</v>
+      </c>
+      <c r="B6" t="str">
+        <v>2-5</v>
+      </c>
+      <c r="C6" t="str">
+        <v>ECE EEE INSTR F341</v>
+      </c>
+      <c r="D6" t="str">
+        <v>ANALOG ELECTRONICS</v>
+      </c>
+      <c r="E6" t="str">
+        <v xml:space="preserve">ECE EEE INSTR </v>
+      </c>
+      <c r="F6" t="str">
+        <v>SOMESULA SIVASAGAR N N .</v>
+      </c>
+      <c r="G6" t="str">
+        <v>p20170425@goa.bits-pilani.ac.in</v>
+      </c>
+      <c r="H6" t="str">
+        <v>31320170425</v>
+      </c>
+      <c r="I6" t="str">
+        <v>Ramesha C K</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>14-6-2021</v>
+      </c>
+      <c r="B7" t="str">
+        <v>2-5</v>
+      </c>
+      <c r="C7" t="str">
+        <v>ECE EEE INSTR F341</v>
+      </c>
+      <c r="D7" t="str">
+        <v>ANALOG ELECTRONICS</v>
+      </c>
+      <c r="E7" t="str">
+        <v xml:space="preserve">ECE EEE INSTR </v>
+      </c>
+      <c r="F7" t="str">
+        <v>PRATEEK SINGH .</v>
+      </c>
+      <c r="G7" t="str">
+        <v>p20170424@goa.bits-pilani.ac.in</v>
+      </c>
+      <c r="H7" t="str">
+        <v>31320170424</v>
+      </c>
+      <c r="I7" t="str">
+        <v>Ramesha C K</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>14-6-2021</v>
+      </c>
+      <c r="B8" t="str">
+        <v>2-5</v>
+      </c>
+      <c r="C8" t="str">
+        <v>ECE EEE INSTR F341</v>
+      </c>
+      <c r="D8" t="str">
+        <v>ANALOG ELECTRONICS</v>
+      </c>
+      <c r="E8" t="str">
+        <v xml:space="preserve">ECE EEE INSTR </v>
+      </c>
+      <c r="F8" t="str">
+        <v>VARUN SHARMA .</v>
+      </c>
+      <c r="G8" t="str">
+        <v>varuns@goa.bits-pilani.ac.in</v>
+      </c>
+      <c r="H8" t="str">
+        <v>G0784</v>
+      </c>
+      <c r="I8" t="str">
+        <v>Ramesha C K</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>14-6-2021</v>
+      </c>
+      <c r="B9" t="str">
+        <v>2-5</v>
+      </c>
+      <c r="C9" t="str">
+        <v>ECE EEE INSTR F341</v>
+      </c>
+      <c r="D9" t="str">
+        <v>ANALOG ELECTRONICS</v>
+      </c>
+      <c r="E9" t="str">
+        <v xml:space="preserve">ECE EEE INSTR </v>
+      </c>
+      <c r="F9" t="str">
+        <v>APARNA A P .</v>
+      </c>
+      <c r="G9" t="str">
+        <v>p20180406@goa.bits-pilani.ac.in</v>
+      </c>
+      <c r="H9" t="str">
+        <v>31320180406</v>
+      </c>
+      <c r="I9" t="str">
+        <v>Ramesha C K</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>14-6-2021</v>
+      </c>
+      <c r="B10" t="str">
+        <v>2-5</v>
+      </c>
+      <c r="C10" t="str">
+        <v>ECE EEE INSTR F341</v>
+      </c>
+      <c r="D10" t="str">
+        <v>ANALOG ELECTRONICS</v>
+      </c>
+      <c r="E10" t="str">
+        <v xml:space="preserve">ECE EEE INSTR </v>
+      </c>
+      <c r="F10" t="str">
+        <v>RAHUL BAJPAI .</v>
+      </c>
+      <c r="G10" t="str">
+        <v>p20190003@goa.bits-pilani.ac.in</v>
+      </c>
+      <c r="H10" t="str">
+        <v>31320190003</v>
+      </c>
+      <c r="I10" t="str">
+        <v>Ramesha C K</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>14-6-2021</v>
+      </c>
+      <c r="B11" t="str">
+        <v>2-5</v>
+      </c>
+      <c r="C11" t="str">
+        <v>ECE EEE INSTR F341</v>
+      </c>
+      <c r="D11" t="str">
+        <v>ANALOG ELECTRONICS</v>
+      </c>
+      <c r="E11" t="str">
+        <v xml:space="preserve">ECE EEE INSTR </v>
+      </c>
+      <c r="F11" t="str">
+        <v>MANISH VARUN YADAV .</v>
+      </c>
+      <c r="G11" t="str">
+        <v>p20170421@goa.bits-pilani.ac.in</v>
+      </c>
+      <c r="H11" t="str">
+        <v>31320170421</v>
+      </c>
+      <c r="I11" t="str">
+        <v>Ramesha C K</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>14-6-2021</v>
+      </c>
+      <c r="B12" t="str">
+        <v>2-5</v>
+      </c>
+      <c r="C12" t="str">
+        <v>ECE EEE INSTR F341</v>
+      </c>
+      <c r="D12" t="str">
+        <v>ANALOG ELECTRONICS</v>
+      </c>
+      <c r="E12" t="str">
+        <v xml:space="preserve">ECE EEE INSTR </v>
+      </c>
+      <c r="F12" t="str">
+        <v>ASHISH CHITTORA .</v>
+      </c>
+      <c r="G12" t="str">
+        <v>ashishc@goa.bits-pilani.ac.in</v>
+      </c>
+      <c r="H12" t="str">
+        <v>G0676</v>
+      </c>
+      <c r="I12" t="str">
+        <v>Ramesha C K</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>14-6-2021</v>
+      </c>
+      <c r="B13" t="str">
+        <v>2-5</v>
+      </c>
+      <c r="C13" t="str">
+        <v>ECE EEE INSTR F341</v>
+      </c>
+      <c r="D13" t="str">
+        <v>ANALOG ELECTRONICS</v>
+      </c>
+      <c r="E13" t="str">
+        <v xml:space="preserve">ECE EEE INSTR </v>
+      </c>
+      <c r="F13" t="str">
+        <v>RAVISHANKAR PRAKASH DESAI .</v>
+      </c>
+      <c r="G13" t="str">
+        <v>p20180019@goa.bits-pilani.ac.in</v>
+      </c>
+      <c r="H13" t="str">
+        <v>31320180019</v>
+      </c>
+      <c r="I13" t="str">
+        <v>Ramesha C K</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v>14-6-2021</v>
+      </c>
+      <c r="B14" t="str">
+        <v>9-12</v>
+      </c>
+      <c r="C14" t="str">
+        <v>ECON F342</v>
+      </c>
+      <c r="D14" t="str">
+        <v>APPLIED ECONOMETRICS</v>
+      </c>
+      <c r="E14" t="str">
+        <v>ECON</v>
+      </c>
+      <c r="F14" t="str">
+        <v>Aswini Kumar Mishra</v>
+      </c>
+      <c r="G14" t="str">
+        <v>aswini@goa.bits-pilani.ac.in</v>
+      </c>
+      <c r="H14" t="str">
+        <v>G0338</v>
+      </c>
+      <c r="I14" t="str">
+        <v>Aswini Kumar Mishra</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v>14-6-2021</v>
+      </c>
+      <c r="B15" t="str">
+        <v>9-12</v>
+      </c>
+      <c r="C15" t="str">
+        <v>ECON F342</v>
+      </c>
+      <c r="D15" t="str">
+        <v>APPLIED ECONOMETRICS</v>
+      </c>
+      <c r="E15" t="str">
+        <v>ECON</v>
+      </c>
+      <c r="F15" t="str">
+        <v>REVANKAR DIVYA SATISH .</v>
+      </c>
+      <c r="G15" t="str">
+        <v>p20180446@goa.bits-pilani.ac.in</v>
+      </c>
+      <c r="H15" t="str">
+        <v>31320180446</v>
+      </c>
+      <c r="I15" t="str">
+        <v>Aswini Kumar Mishra</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:I3"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:I15"/>
   </ignoredErrors>
 </worksheet>
 </file>